--- a/biology/Médecine/Association_des_médecins_urgentistes_de_France/Association_des_médecins_urgentistes_de_France.xlsx
+++ b/biology/Médecine/Association_des_médecins_urgentistes_de_France/Association_des_médecins_urgentistes_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_des_m%C3%A9decins_urgentistes_de_France</t>
+          <t>Association_des_médecins_urgentistes_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association des médecins urgentistes de France (AMUF) est un syndicat français.
-Ce syndicat a contribué à dénoncer les vagues de décès de la canicule de 2003 en France[1] et dénonce régulièrement les manques d'effectifs dans les services d'urgence français. C'est l'une des « structures représentatives de la discipline »[2]. C'est un syndicat minoritaire (&lt;10% des votes associé à la CGT n 2011 par exemple) dans la profession[3].
+Ce syndicat a contribué à dénoncer les vagues de décès de la canicule de 2003 en France et dénonce régulièrement les manques d'effectifs dans les services d'urgence français. C'est l'une des « structures représentatives de la discipline ». C'est un syndicat minoritaire (&lt;10% des votes associé à la CGT n 2011 par exemple) dans la profession.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_des_m%C3%A9decins_urgentistes_de_France</t>
+          <t>Association_des_médecins_urgentistes_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Présidents
-depuis 1997 : Patrick Pelloux
-Secrétaires généraux
-Bruno Faggianelli[Depuis quand ?]</t>
+          <t>Présidents</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>depuis 1997 : Patrick Pelloux</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Association_des_médecins_urgentistes_de_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_des_m%C3%A9decins_urgentistes_de_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Secrétaires généraux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bruno Faggianelli[Depuis quand ?]</t>
         </is>
       </c>
     </row>
